--- a/001_output/df_yr1_001.xlsx
+++ b/001_output/df_yr1_001.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nv5inc-my.sharepoint.com/personal/andrewj_johnson_nv5_com/Documents/Documents/GitHub/Potential_Study_Tool_Prototype/001_output/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_23F921ED25034922C12C4C89C5CAE48655F0339F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98140B32-4F65-40EF-BC3F-CA4E9265A428}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="43095" yWindow="-3300" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -136,8 +155,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,13 +219,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -244,7 +271,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -278,6 +305,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -312,9 +340,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -487,14 +516,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="47.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,7 +559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -555,7 +591,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -587,7 +623,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -619,7 +655,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -651,7 +687,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -683,7 +719,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -715,7 +751,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -747,7 +783,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -779,7 +815,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -811,7 +847,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -843,7 +879,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -875,7 +911,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -907,7 +943,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -939,7 +975,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -971,7 +1007,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1003,7 +1039,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1035,7 +1071,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1067,7 +1103,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1099,7 +1135,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1131,7 +1167,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1163,7 +1199,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1195,7 +1231,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1227,7 +1263,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1259,7 +1295,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1279,7 +1315,7 @@
         <v>38</v>
       </c>
       <c r="G25">
-        <v>57749.99999999999</v>
+        <v>57749.999999999993</v>
       </c>
       <c r="H25">
         <v>3990</v>
@@ -1291,7 +1327,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1323,7 +1359,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1355,7 +1391,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1387,7 +1423,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1419,7 +1455,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1451,7 +1487,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1483,7 +1519,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1515,7 +1551,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1547,7 +1583,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1579,7 +1615,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1611,7 +1647,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1643,7 +1679,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1675,7 +1711,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1707,7 +1743,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1739,7 +1775,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1771,7 +1807,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1803,7 +1839,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1835,7 +1871,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1867,7 +1903,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1899,7 +1935,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1931,7 +1967,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1963,7 +1999,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1995,7 +2031,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2027,7 +2063,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2059,7 +2095,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2091,7 +2127,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2123,7 +2159,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2155,7 +2191,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2187,7 +2223,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2219,7 +2255,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2251,7 +2287,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2283,7 +2319,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2315,7 +2351,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2335,19 +2371,19 @@
         <v>37</v>
       </c>
       <c r="G58">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="H58">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="I58">
-        <v>6250</v>
+        <v>5000</v>
       </c>
       <c r="J58">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2367,19 +2403,20 @@
         <v>38</v>
       </c>
       <c r="G59">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="H59">
-        <v>6000</v>
+        <f>(H58-120)*2/3</f>
+        <v>720</v>
       </c>
       <c r="I59">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="J59">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2399,19 +2436,19 @@
         <v>38</v>
       </c>
       <c r="G60">
-        <v>68750</v>
+        <v>55000</v>
       </c>
       <c r="H60">
-        <v>5700</v>
+        <v>4560</v>
       </c>
       <c r="I60">
-        <v>11750</v>
+        <v>9400</v>
       </c>
       <c r="J60">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2431,19 +2468,19 @@
         <v>36</v>
       </c>
       <c r="G61">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="H61">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="I61">
-        <v>6250</v>
+        <v>5000</v>
       </c>
       <c r="J61">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2463,19 +2500,19 @@
         <v>36</v>
       </c>
       <c r="G62">
-        <v>13750</v>
+        <v>11000</v>
       </c>
       <c r="H62">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="I62">
-        <v>6250</v>
+        <v>5000</v>
       </c>
       <c r="J62">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2495,19 +2532,19 @@
         <v>37</v>
       </c>
       <c r="G63">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="H63">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="I63">
-        <v>6250</v>
+        <v>5000</v>
       </c>
       <c r="J63">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2527,19 +2564,19 @@
         <v>38</v>
       </c>
       <c r="G64">
-        <v>13750</v>
+        <v>11000</v>
       </c>
       <c r="H64">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="I64">
-        <v>6250</v>
+        <v>5000</v>
       </c>
       <c r="J64">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2571,7 +2608,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2603,7 +2640,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2635,7 +2672,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2667,7 +2704,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2699,7 +2736,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2731,7 +2768,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2763,7 +2800,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2783,19 +2820,19 @@
         <v>37</v>
       </c>
       <c r="G72">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="H72">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="I72">
-        <v>6250</v>
+        <v>7500</v>
       </c>
       <c r="J72">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2815,19 +2852,19 @@
         <v>38</v>
       </c>
       <c r="G73">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="H73">
-        <v>6000</v>
+        <v>7200</v>
       </c>
       <c r="I73">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="J73">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2847,19 +2884,19 @@
         <v>38</v>
       </c>
       <c r="G74">
-        <v>68750</v>
+        <v>82500</v>
       </c>
       <c r="H74">
-        <v>5700</v>
+        <v>6840</v>
       </c>
       <c r="I74">
-        <v>11750</v>
+        <v>14100</v>
       </c>
       <c r="J74">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2879,19 +2916,19 @@
         <v>36</v>
       </c>
       <c r="G75">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="H75">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="I75">
-        <v>6250</v>
+        <v>7500</v>
       </c>
       <c r="J75">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2911,19 +2948,19 @@
         <v>36</v>
       </c>
       <c r="G76">
-        <v>13750</v>
+        <v>16500</v>
       </c>
       <c r="H76">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="I76">
-        <v>6250</v>
+        <v>7500</v>
       </c>
       <c r="J76">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2943,19 +2980,19 @@
         <v>37</v>
       </c>
       <c r="G77">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="H77">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="I77">
-        <v>6250</v>
+        <v>7500</v>
       </c>
       <c r="J77">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2975,19 +3012,19 @@
         <v>38</v>
       </c>
       <c r="G78">
-        <v>13750</v>
+        <v>16500</v>
       </c>
       <c r="H78">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="I78">
-        <v>6250</v>
+        <v>7500</v>
       </c>
       <c r="J78">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3019,7 +3056,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3051,7 +3088,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3083,7 +3120,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3115,7 +3152,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3147,7 +3184,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3179,7 +3216,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3211,7 +3248,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3243,7 +3280,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3275,7 +3312,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3307,7 +3344,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3339,7 +3376,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3371,7 +3408,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3403,7 +3440,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3435,7 +3472,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3467,7 +3504,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3499,7 +3536,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3531,7 +3568,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3563,7 +3600,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3595,7 +3632,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3627,7 +3664,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3659,7 +3696,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3691,7 +3728,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3723,7 +3760,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3755,7 +3792,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3787,7 +3824,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -3819,7 +3856,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -3851,7 +3888,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -3883,7 +3920,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -3915,7 +3952,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3947,7 +3984,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -3979,7 +4016,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -4011,7 +4048,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -4043,7 +4080,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -4075,7 +4112,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -4107,7 +4144,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -4139,7 +4176,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -4171,7 +4208,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -4203,7 +4240,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -4235,7 +4272,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -4267,7 +4304,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -4299,7 +4336,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -4331,7 +4368,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -4363,7 +4400,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -4395,7 +4432,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -4427,7 +4464,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -4459,7 +4496,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -4491,7 +4528,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -4523,7 +4560,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
